--- a/17_AESA_CC_selection_REMIND_SSP2_NPi.xlsx
+++ b/17_AESA_CC_selection_REMIND_SSP2_NPi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>RF</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>LSCcumul</t>
   </si>
   <si>
     <t>FWU</t>
@@ -443,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,22 +465,19 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D2">
-        <v>170.4224346600788</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -492,46 +486,40 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>4.920238872982266</v>
+        <v>5.129652539675706</v>
       </c>
       <c r="D3">
-        <v>189.9961448208639</v>
+        <v>198.3521815453633</v>
       </c>
       <c r="E3">
-        <v>4.502867517060342</v>
+        <v>4.925332130254744</v>
       </c>
       <c r="F3">
-        <v>2.628240804153687</v>
+        <v>2.782747408111019</v>
       </c>
       <c r="G3">
-        <v>0.0102440833542407</v>
+        <v>0.01173038989426696</v>
       </c>
       <c r="H3">
-        <v>0.01172839799229585</v>
-      </c>
-      <c r="I3">
-        <v>0.07480747967847234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.07602286555682622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,14 +539,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -578,14 +563,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -605,14 +587,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -632,14 +611,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -659,49 +635,43 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>9.374784327527721</v>
+        <v>8.223890971090094</v>
       </c>
       <c r="D9">
-        <v>360.4185794809428</v>
+        <v>315.162819730347</v>
       </c>
       <c r="E9">
-        <v>4.502867517060342</v>
+        <v>4.925332130254744</v>
       </c>
       <c r="F9">
-        <v>2.628240804153687</v>
+        <v>2.782747408111019</v>
       </c>
       <c r="G9">
-        <v>0.02172371474144214</v>
+        <v>0.01173038989426696</v>
       </c>
       <c r="H9">
-        <v>0.01172839799229585</v>
-      </c>
-      <c r="I9">
-        <v>0.07480747967847234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.07602286555682622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D10">
-        <v>170.4013595956759</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -710,154 +680,136 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.354026967221373</v>
+        <v>4.494107129385305</v>
       </c>
       <c r="D11">
-        <v>167.5460139861459</v>
+        <v>173.0909343961902</v>
       </c>
       <c r="E11">
-        <v>3.364419058568462</v>
+        <v>3.596474548785261</v>
       </c>
       <c r="F11">
-        <v>1.963749414900556</v>
+        <v>2.03196047785143</v>
       </c>
       <c r="G11">
-        <v>0.009196432291275095</v>
+        <v>0.008565523620815585</v>
       </c>
       <c r="H11">
-        <v>0.008763137174756781</v>
-      </c>
-      <c r="I11">
-        <v>0.05589409623981892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.05551185054533728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>1.049259373359223</v>
+        <v>1.096555425208944</v>
       </c>
       <c r="D12">
-        <v>51.36056758923342</v>
+        <v>52.00739075611423</v>
       </c>
       <c r="E12">
-        <v>8.878699278402195</v>
+        <v>9.244567643402567</v>
       </c>
       <c r="F12">
-        <v>1.80214780746551</v>
+        <v>1.830130719524823</v>
       </c>
       <c r="G12">
-        <v>0.001057877489917455</v>
+        <v>0.04461835279452162</v>
       </c>
       <c r="H12">
-        <v>0.05393746639420602</v>
-      </c>
-      <c r="I12">
-        <v>0.01541991516894983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01039050713828432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.2446267071428269</v>
+        <v>0.2808498489514088</v>
       </c>
       <c r="D13">
-        <v>51.43605277930749</v>
+        <v>60.78781934433457</v>
       </c>
       <c r="E13">
-        <v>1.634615548978568</v>
+        <v>1.950821880005511</v>
       </c>
       <c r="F13">
-        <v>1.619058912034257</v>
+        <v>1.922675860302655</v>
       </c>
       <c r="G13">
-        <v>0.0001374856510941693</v>
+        <v>0.00670543943376881</v>
       </c>
       <c r="H13">
-        <v>0.006523751483959285</v>
-      </c>
-      <c r="I13">
-        <v>0.01257882549718278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.01372312199855354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.1972935372459381</v>
+        <v>-0.229910608724423</v>
       </c>
       <c r="D14">
-        <v>82.08726401224297</v>
+        <v>93.71986402328025</v>
       </c>
       <c r="E14">
-        <v>1.254171837863604</v>
+        <v>1.532148489583207</v>
       </c>
       <c r="F14">
-        <v>2.718888117583905</v>
+        <v>3.141815791911455</v>
       </c>
       <c r="G14">
-        <v>0.0001569374564607347</v>
+        <v>0.003149693559776216</v>
       </c>
       <c r="H14">
-        <v>0.002997933861285869</v>
-      </c>
-      <c r="I14">
-        <v>0.01189343480283141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.01328539005447622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.01161142566785223</v>
+        <v>0.01318016322362594</v>
       </c>
       <c r="D15">
-        <v>0.9112166743791733</v>
+        <v>1.087499351873568</v>
       </c>
       <c r="E15">
-        <v>4.980921253283912</v>
+        <v>5.714173541559926</v>
       </c>
       <c r="F15">
-        <v>3.402239676111055</v>
+        <v>3.886315215065946</v>
       </c>
       <c r="G15">
-        <v>1.92167527289589E-05</v>
+        <v>0.006479584730337632</v>
       </c>
       <c r="H15">
-        <v>0.005753543259667635</v>
-      </c>
-      <c r="I15">
-        <v>0.01462080332974386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.01659793244470616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -877,49 +829,43 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>9.916776390690789</v>
+        <v>8.74902038945925</v>
       </c>
       <c r="D17">
-        <v>523.7424746369849</v>
+        <v>497.5041460567764</v>
       </c>
       <c r="E17">
-        <v>20.11282697709674</v>
+        <v>22.03818610333647</v>
       </c>
       <c r="F17">
-        <v>11.50608392809528</v>
+        <v>12.81289806465631</v>
       </c>
       <c r="G17">
-        <v>0.02204758102867786</v>
+        <v>0.06951859413921986</v>
       </c>
       <c r="H17">
-        <v>0.07797583217387559</v>
-      </c>
-      <c r="I17">
-        <v>0.1104070750385268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1095088021813575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D18">
-        <v>170.3117942103125</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -928,154 +874,136 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3.085406978940133</v>
+        <v>3.116818239181061</v>
       </c>
       <c r="D19">
-        <v>117.7756418836182</v>
+        <v>118.9863551239508</v>
       </c>
       <c r="E19">
-        <v>1.374960650637551</v>
+        <v>1.38598376320364</v>
       </c>
       <c r="F19">
-        <v>0.8025391980598409</v>
+        <v>0.7830624661934027</v>
       </c>
       <c r="G19">
-        <v>0.006758194074987989</v>
+        <v>0.003300920526685616</v>
       </c>
       <c r="H19">
-        <v>0.003581292514897489</v>
-      </c>
-      <c r="I19">
-        <v>0.02284263095495584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.02139276184985412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>2.710897773597756</v>
+        <v>2.818048852656533</v>
       </c>
       <c r="D20">
-        <v>127.4685458789185</v>
+        <v>130.2541620963624</v>
       </c>
       <c r="E20">
-        <v>18.98869410646327</v>
+        <v>20.79549382860903</v>
       </c>
       <c r="F20">
-        <v>3.854216972280913</v>
+        <v>4.116847163813753</v>
       </c>
       <c r="G20">
-        <v>0.002830274499354547</v>
+        <v>0.1003682071430725</v>
       </c>
       <c r="H20">
-        <v>0.1153549656455461</v>
-      </c>
-      <c r="I20">
-        <v>0.03297825989028137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.02337326475451917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.9514528939029379</v>
+        <v>1.047607203728573</v>
       </c>
       <c r="D21">
-        <v>165.2475533313184</v>
+        <v>182.6679085595518</v>
       </c>
       <c r="E21">
-        <v>5.00942763382558</v>
+        <v>5.563384941560057</v>
       </c>
       <c r="F21">
-        <v>4.961752908691026</v>
+        <v>5.483117673807617</v>
       </c>
       <c r="G21">
-        <v>0.0005485289188409446</v>
+        <v>0.01912267908962914</v>
       </c>
       <c r="H21">
-        <v>0.01999262822403555</v>
-      </c>
-      <c r="I21">
-        <v>0.0385489518229729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.03913581811873498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>-0.765924805959351</v>
+        <v>-0.853544084597072</v>
       </c>
       <c r="D22">
-        <v>245.4745959512562</v>
+        <v>259.801581091458</v>
       </c>
       <c r="E22">
-        <v>3.843523369201799</v>
+        <v>4.36940549137019</v>
       </c>
       <c r="F22">
-        <v>8.332279279990754</v>
+        <v>8.959880368896824</v>
       </c>
       <c r="G22">
-        <v>0.0006237936366138392</v>
+        <v>0.008982346312897717</v>
       </c>
       <c r="H22">
-        <v>0.009187440275171252</v>
-      </c>
-      <c r="I22">
-        <v>0.03644850986498705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.03788748718135965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>0.04529153863931301</v>
+        <v>0.04942436028695324</v>
       </c>
       <c r="D23">
-        <v>3.158965495733301</v>
+        <v>3.548205257875159</v>
       </c>
       <c r="E23">
-        <v>15.26448502444579</v>
+        <v>16.29577121335423</v>
       </c>
       <c r="F23">
-        <v>10.42647212126328</v>
+        <v>11.08305569424541</v>
       </c>
       <c r="G23">
-        <v>7.677263065102675E-05</v>
+        <v>0.01847858304532704</v>
       </c>
       <c r="H23">
-        <v>0.01763225525133424</v>
-      </c>
-      <c r="I23">
-        <v>0.04480677812866461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.04733424838542846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1095,49 +1023,43 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>10.48166983366624</v>
+        <v>9.272593002670435</v>
       </c>
       <c r="D25">
-        <v>829.4370967511571</v>
+        <v>812.068850314182</v>
       </c>
       <c r="E25">
-        <v>44.48109078457399</v>
+        <v>48.41003923809714</v>
       </c>
       <c r="F25">
-        <v>28.37726048028582</v>
+        <v>30.42596336695701</v>
       </c>
       <c r="G25">
-        <v>0.02231719514764979</v>
+        <v>0.150252736117612</v>
       </c>
       <c r="H25">
-        <v>0.1657485819109847</v>
-      </c>
-      <c r="I25">
-        <v>0.1756251306618618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1691235802898964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D26">
-        <v>170.2617781247955</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1146,25 +1068,22 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1.810147481953218</v>
+        <v>1.786401261440543</v>
       </c>
       <c r="D27">
-        <v>68.33490284045263</v>
+        <v>67.43845893864929</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1173,189 +1092,168 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.004290184390020352</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>5.589781901896395</v>
+        <v>5.943028378627709</v>
       </c>
       <c r="D28">
-        <v>282.2089951878069</v>
+        <v>293.7343466734705</v>
       </c>
       <c r="E28">
-        <v>53.7930456722324</v>
+        <v>60.4429383898674</v>
       </c>
       <c r="F28">
-        <v>10.91860601145976</v>
+        <v>11.96578169932977</v>
       </c>
       <c r="G28">
-        <v>0.005677112403830844</v>
+        <v>0.2917242269238269</v>
       </c>
       <c r="H28">
-        <v>0.3267889250676557</v>
-      </c>
-      <c r="I28">
-        <v>0.09342406752788918</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.06793533316260555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>1.354394011015585</v>
+        <v>1.413296950533439</v>
       </c>
       <c r="D29">
-        <v>162.7363265444946</v>
+        <v>164.3141538550501</v>
       </c>
       <c r="E29">
-        <v>4.322959561395146</v>
+        <v>4.313295353919024</v>
       </c>
       <c r="F29">
-        <v>4.281817953227045</v>
+        <v>4.251064097821313</v>
       </c>
       <c r="G29">
-        <v>0.0008135618010857917</v>
+        <v>0.01482582343990253</v>
       </c>
       <c r="H29">
-        <v>0.01725293379924733</v>
-      </c>
-      <c r="I29">
-        <v>0.03326638730932585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.03034202095244991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>-1.084075616366764</v>
+        <v>-1.139484685734824</v>
       </c>
       <c r="D30">
-        <v>195.8631156438616</v>
+        <v>183.3894579787686</v>
       </c>
       <c r="E30">
-        <v>3.316825256870278</v>
+        <v>3.387602440472232</v>
       </c>
       <c r="F30">
-        <v>7.190463465013265</v>
+        <v>6.946600095587824</v>
       </c>
       <c r="G30">
-        <v>0.000919561548694422</v>
+        <v>0.006964017954121495</v>
       </c>
       <c r="H30">
-        <v>0.007928437275770672</v>
-      </c>
-      <c r="I30">
-        <v>0.03145377990002464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.02937418930159447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.06480602879436764</v>
+        <v>0.06726504723189224</v>
       </c>
       <c r="D31">
-        <v>3.697070763975279</v>
+        <v>3.843678157863061</v>
       </c>
       <c r="E31">
-        <v>13.17271279469659</v>
+        <v>12.63412023460995</v>
       </c>
       <c r="F31">
-        <v>8.997678106752824</v>
+        <v>8.592699073562475</v>
       </c>
       <c r="G31">
-        <v>0.0001141159557863961</v>
+        <v>0.01432645542842231</v>
       </c>
       <c r="H31">
-        <v>0.01521601508184779</v>
-      </c>
-      <c r="I31">
-        <v>0.03866667094234456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.03669826837200057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.03208572411114465</v>
+        <v>0.03354029451215512</v>
       </c>
       <c r="D32">
-        <v>4.028027281727452</v>
+        <v>4.337860777980784</v>
       </c>
       <c r="E32">
-        <v>6.531941043917168</v>
+        <v>7.26159995385555</v>
       </c>
       <c r="F32">
-        <v>13.68938546957946</v>
+        <v>14.97689669282375</v>
       </c>
       <c r="G32">
-        <v>2.182939181446208E-05</v>
+        <v>0.008055991344131994</v>
       </c>
       <c r="H32">
-        <v>0.01179057099717313</v>
-      </c>
-      <c r="I32">
-        <v>0.003483163876438001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.002182949714942397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>12.2216849859494</v>
+        <v>11.1982856780253</v>
       </c>
       <c r="D33">
-        <v>887.1302163871139</v>
+        <v>833.8685945667662</v>
       </c>
       <c r="E33">
-        <v>81.13748432911159</v>
+        <v>88.03955637272416</v>
       </c>
       <c r="F33">
-        <v>45.07795100603236</v>
+        <v>46.73304165912513</v>
       </c>
       <c r="G33">
-        <v>0.02331599687843372</v>
+        <v>0.3358965150904052</v>
       </c>
       <c r="H33">
-        <v>0.3789768822216947</v>
-      </c>
-      <c r="I33">
-        <v>0.2002940695560222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1665327615035929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D34">
-        <v>170.4224346600788</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1364,154 +1262,136 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>3.446897139730228</v>
+        <v>3.474519018357185</v>
       </c>
       <c r="D35">
-        <v>131.6376233062873</v>
+        <v>132.5773950174847</v>
       </c>
       <c r="E35">
-        <v>1.603020836073482</v>
+        <v>1.477599639076423</v>
       </c>
       <c r="F35">
-        <v>0.9356537262787127</v>
+        <v>0.8348242224333057</v>
       </c>
       <c r="G35">
-        <v>0.007488548345915745</v>
+        <v>0.003519116968280089</v>
       </c>
       <c r="H35">
-        <v>0.004175309685257323</v>
-      </c>
-      <c r="I35">
-        <v>0.02663146276553615</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.02280685966704787</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>2.188204456810227</v>
+        <v>2.444110603990516</v>
       </c>
       <c r="D36">
-        <v>124.6779929585902</v>
+        <v>136.2859585323698</v>
       </c>
       <c r="E36">
-        <v>31.79042139153848</v>
+        <v>38.34871819739604</v>
       </c>
       <c r="F36">
-        <v>6.452638659418113</v>
+        <v>7.591827972348893</v>
       </c>
       <c r="G36">
-        <v>0.002126790563440671</v>
+        <v>0.1850877946650336</v>
       </c>
       <c r="H36">
-        <v>0.1931245480556844</v>
-      </c>
-      <c r="I36">
-        <v>0.05521142069031856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0431023543278914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.7310579269748729</v>
+        <v>0.7929493439349073</v>
       </c>
       <c r="D37">
-        <v>112.3822525499658</v>
+        <v>124.6611751961946</v>
       </c>
       <c r="E37">
-        <v>3.284018987904189</v>
+        <v>3.682234269959932</v>
       </c>
       <c r="F37">
-        <v>3.252764977660023</v>
+        <v>3.629107821371745</v>
       </c>
       <c r="G37">
-        <v>0.0004318550752005037</v>
+        <v>0.01265671619291787</v>
       </c>
       <c r="H37">
-        <v>0.01310652144418781</v>
-      </c>
-      <c r="I37">
-        <v>0.02527144795857024</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.02590280057437747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>-0.5849910229895512</v>
+        <v>-0.6415346617933888</v>
       </c>
       <c r="D38">
-        <v>157.7965856002103</v>
+        <v>169.0629916683532</v>
       </c>
       <c r="E38">
-        <v>2.519689802420184</v>
+        <v>2.891975804061976</v>
       </c>
       <c r="F38">
-        <v>5.462373222689621</v>
+        <v>5.930270670762101</v>
       </c>
       <c r="G38">
-        <v>0.0004887544711750671</v>
+        <v>0.005945140191705925</v>
       </c>
       <c r="H38">
-        <v>0.006022989155520876</v>
-      </c>
-      <c r="I38">
-        <v>0.02389446604022911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02507656852210361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.03494839986340893</v>
+        <v>0.0375987718767176</v>
       </c>
       <c r="D39">
-        <v>2.269362644112455</v>
+        <v>2.532911276725687</v>
       </c>
       <c r="E39">
-        <v>10.0069034478849</v>
+        <v>10.78567236449636</v>
       </c>
       <c r="F39">
-        <v>6.83525842191545</v>
+        <v>7.335535455826499</v>
       </c>
       <c r="G39">
-        <v>6.054957947028175E-05</v>
+        <v>0.01223040872859747</v>
       </c>
       <c r="H39">
-        <v>0.01155913714651959</v>
-      </c>
-      <c r="I39">
-        <v>0.02937387680136473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0313290907205758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1531,49 +1411,43 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>10.27066235493464</v>
+        <v>9.201881507780326</v>
       </c>
       <c r="D41">
-        <v>699.1862517192449</v>
+        <v>681.9310698761118</v>
       </c>
       <c r="E41">
-        <v>49.20405446582122</v>
+        <v>57.18620027499074</v>
       </c>
       <c r="F41">
-        <v>22.93868900796192</v>
+        <v>25.32156614274254</v>
       </c>
       <c r="G41">
-        <v>0.02207612942240372</v>
+        <v>0.2194391767465349</v>
       </c>
       <c r="H41">
-        <v>0.22798850548717</v>
-      </c>
-      <c r="I41">
-        <v>0.1603826742560188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1482176738119961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D42">
-        <v>170.4073166672333</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1582,46 +1456,40 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>2.066154686428896</v>
+        <v>2.041067353832599</v>
       </c>
       <c r="D43">
-        <v>78.05716531877816</v>
+        <v>77.09721687138519</v>
       </c>
       <c r="E43">
-        <v>0.06113505828781288</v>
+        <v>0.04697923881459414</v>
       </c>
       <c r="F43">
-        <v>0.03568340710615463</v>
+        <v>0.02654264760000639</v>
       </c>
       <c r="G43">
-        <v>0.004873468291555363</v>
+        <v>0.0001118878430240128</v>
       </c>
       <c r="H43">
-        <v>0.0001592354854245795</v>
-      </c>
-      <c r="I43">
-        <v>0.001015654938365467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0007251280242453822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1641,95 +1509,83 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>2.217448448734408</v>
+        <v>2.385207055280192</v>
       </c>
       <c r="D45">
-        <v>334.1090357411301</v>
+        <v>358.109711808877</v>
       </c>
       <c r="E45">
-        <v>9.698898607376451</v>
+        <v>10.42032016334295</v>
       </c>
       <c r="F45">
-        <v>9.606594184792851</v>
+        <v>10.26997812564411</v>
       </c>
       <c r="G45">
-        <v>0.001290153459457739</v>
+        <v>0.03581712223546452</v>
       </c>
       <c r="H45">
-        <v>0.0387083092548463</v>
-      </c>
-      <c r="I45">
-        <v>0.07463574733110351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.07330209197014889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>-1.794593947041498</v>
+        <v>-1.949811216921739</v>
       </c>
       <c r="D46">
-        <v>463.5048518086431</v>
+        <v>473.358364421904</v>
       </c>
       <c r="E46">
-        <v>7.441557434876424</v>
+        <v>8.183975155740125</v>
       </c>
       <c r="F46">
-        <v>16.13236836865099</v>
+        <v>16.78201725206802</v>
       </c>
       <c r="G46">
-        <v>0.001470251917308185</v>
+        <v>0.0168240963696772</v>
       </c>
       <c r="H46">
-        <v>0.01778807045509969</v>
-      </c>
-      <c r="I46">
-        <v>0.07056902053708324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.07096394564845838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>0.1054852691712388</v>
+        <v>0.1126367276207185</v>
       </c>
       <c r="D47">
-        <v>6.787944434707983</v>
+        <v>7.40328908916946</v>
       </c>
       <c r="E47">
-        <v>29.55401362547574</v>
+        <v>30.52227288520545</v>
       </c>
       <c r="F47">
-        <v>20.1869960659643</v>
+        <v>20.75876286385705</v>
       </c>
       <c r="G47">
-        <v>0.0001804726568095502</v>
+        <v>0.03461071874764682</v>
       </c>
       <c r="H47">
-        <v>0.03413832245970043</v>
-      </c>
-      <c r="I47">
-        <v>0.08675170693328392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.08865789947101028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1749,49 +1605,43 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>7.049039911838499</v>
+        <v>5.683338351226158</v>
       </c>
       <c r="D49">
-        <v>1052.866313970492</v>
+        <v>1032.779220376319</v>
       </c>
       <c r="E49">
-        <v>46.75560472601643</v>
+        <v>49.17354744310312</v>
       </c>
       <c r="F49">
-        <v>45.96164202651429</v>
+        <v>47.83730088916919</v>
       </c>
       <c r="G49">
-        <v>0.01929397771233228</v>
+        <v>0.08736382519581254</v>
       </c>
       <c r="H49">
-        <v>0.09079393765507099</v>
-      </c>
-      <c r="I49">
-        <v>0.2329721297398362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.233649065113863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D50">
-        <v>170.4073166672333</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1800,46 +1650,40 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>2.066154686428896</v>
+        <v>2.041067353832599</v>
       </c>
       <c r="D51">
-        <v>78.05716531877816</v>
+        <v>77.09721687138519</v>
       </c>
       <c r="E51">
-        <v>0.06113505828781288</v>
+        <v>0.04697923881459414</v>
       </c>
       <c r="F51">
-        <v>0.03568340710615463</v>
+        <v>0.02654264760000639</v>
       </c>
       <c r="G51">
-        <v>0.004873468291555363</v>
+        <v>0.0001118878430240128</v>
       </c>
       <c r="H51">
-        <v>0.0001592354854245795</v>
-      </c>
-      <c r="I51">
-        <v>0.001015654938365467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0007251280242453822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1859,95 +1703,83 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.7835753432939321</v>
+        <v>0.8429439103741221</v>
       </c>
       <c r="D53">
-        <v>117.9565666871705</v>
+        <v>126.4334203753723</v>
       </c>
       <c r="E53">
-        <v>3.423140684956394</v>
+        <v>3.677760057650455</v>
       </c>
       <c r="F53">
-        <v>3.390562653456301</v>
+        <v>3.62469816199204</v>
       </c>
       <c r="G53">
-        <v>0.0004553482798086138</v>
+        <v>0.01264133725957571</v>
       </c>
       <c r="H53">
-        <v>0.01366175620759281</v>
-      </c>
-      <c r="I53">
-        <v>0.02634202846980124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.02587132657769961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>-0.6314338752571212</v>
+        <v>-0.6858753706405075</v>
       </c>
       <c r="D54">
-        <v>163.6636461212489</v>
+        <v>167.1542322109093</v>
       </c>
       <c r="E54">
-        <v>2.626432035838738</v>
+        <v>2.888461819672985</v>
       </c>
       <c r="F54">
-        <v>5.693777071288586</v>
+        <v>5.923064912494595</v>
       </c>
       <c r="G54">
-        <v>0.0005189124414028889</v>
+        <v>0.005937916365768422</v>
       </c>
       <c r="H54">
-        <v>0.006278142513564598</v>
-      </c>
-      <c r="I54">
-        <v>0.02490671313073526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.02504609846416179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.488020235097422</v>
+        <v>0.5206654030259458</v>
       </c>
       <c r="D55">
-        <v>31.51684534767403</v>
+        <v>34.36095948914895</v>
       </c>
       <c r="E55">
-        <v>137.9187302522201</v>
+        <v>142.4372734642921</v>
       </c>
       <c r="F55">
-        <v>94.20598164116673</v>
+        <v>96.87422669799956</v>
       </c>
       <c r="G55">
-        <v>0.0008422057317779008</v>
+        <v>0.1615166874890185</v>
       </c>
       <c r="H55">
-        <v>0.159312171478602</v>
-      </c>
-      <c r="I55">
-        <v>0.4048412990219916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.413736864198048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1967,49 +1799,43 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>7.160861844108583</v>
+        <v>5.813039728006546</v>
       </c>
       <c r="D57">
-        <v>561.6015401421048</v>
+        <v>521.8564671317995</v>
       </c>
       <c r="E57">
-        <v>144.0294380313031</v>
+        <v>149.0504745804301</v>
       </c>
       <c r="F57">
-        <v>103.3260047730178</v>
+        <v>106.4485324200862</v>
       </c>
       <c r="G57">
-        <v>0.01816956613174622</v>
+        <v>0.1802078289573867</v>
       </c>
       <c r="H57">
-        <v>0.179411305685184</v>
-      </c>
-      <c r="I57">
-        <v>0.4571056955608936</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.4653794172641548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D58">
-        <v>170.4073166672333</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2018,73 +1844,64 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>2.066154686428896</v>
+        <v>2.041067353832599</v>
       </c>
       <c r="D59">
-        <v>78.05716531877816</v>
+        <v>77.09721687138519</v>
       </c>
       <c r="E59">
-        <v>0.06113505828781288</v>
+        <v>0.04697923881459414</v>
       </c>
       <c r="F59">
-        <v>0.03568340710615463</v>
+        <v>0.02654264760000639</v>
       </c>
       <c r="G59">
-        <v>0.004873468291555363</v>
+        <v>0.0001118878430240128</v>
       </c>
       <c r="H59">
-        <v>0.0001592354854245795</v>
-      </c>
-      <c r="I59">
-        <v>0.001015654938365467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0007251280242453822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>11.78150441013444</v>
+        <v>12.35275700260372</v>
       </c>
       <c r="D60">
-        <v>578.6342558852567</v>
+        <v>590.8960897283773</v>
       </c>
       <c r="E60">
-        <v>101.1574370345127</v>
+        <v>108.5226773132583</v>
       </c>
       <c r="F60">
-        <v>20.53236038797162</v>
+        <v>21.48404264831283</v>
       </c>
       <c r="G60">
-        <v>0.01191117779602356</v>
+        <v>0.5237782110907671</v>
       </c>
       <c r="H60">
-        <v>0.6145242326030136</v>
-      </c>
-      <c r="I60">
-        <v>0.1756832897330967</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.121974947535146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2104,14 +1921,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2131,14 +1945,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2158,14 +1969,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2185,49 +1993,43 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>18.30220455110879</v>
+        <v>17.4880627878507</v>
       </c>
       <c r="D65">
-        <v>827.0987378712682</v>
+        <v>784.8039447847461</v>
       </c>
       <c r="E65">
-        <v>101.2185720928005</v>
+        <v>108.5696565520729</v>
       </c>
       <c r="F65">
-        <v>20.56804379507777</v>
+        <v>21.51058529591283</v>
       </c>
       <c r="G65">
-        <v>0.02826427747478037</v>
+        <v>0.523890098933791</v>
       </c>
       <c r="H65">
-        <v>0.6146834680884382</v>
-      </c>
-      <c r="I65">
-        <v>0.1766989446714622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1227000755593913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C66">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D66">
-        <v>170.4073166672333</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2236,73 +2038,64 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.01147963138720145</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>2.066154686428896</v>
+        <v>2.041067353832599</v>
       </c>
       <c r="D67">
-        <v>78.05716531877816</v>
+        <v>77.09721687138519</v>
       </c>
       <c r="E67">
-        <v>0.06113505828781288</v>
+        <v>0.04697923881459414</v>
       </c>
       <c r="F67">
-        <v>0.03568340710615463</v>
+        <v>0.02654264760000639</v>
       </c>
       <c r="G67">
-        <v>0.004873468291555363</v>
+        <v>0.0001118878430240128</v>
       </c>
       <c r="H67">
-        <v>0.0001592354854245795</v>
-      </c>
-      <c r="I67">
-        <v>0.001015654938365467</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0007251280242453822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>0.5175280645965099</v>
+        <v>0.5512000519176288</v>
       </c>
       <c r="D68">
-        <v>134.4288197888864</v>
+        <v>138.6707428849326</v>
       </c>
       <c r="E68">
-        <v>105.5404123020909</v>
+        <v>104.9442247871146</v>
       </c>
       <c r="F68">
-        <v>34.77629494095068</v>
+        <v>34.40119812202336</v>
       </c>
       <c r="G68">
-        <v>0.0001519195238752471</v>
+        <v>0.159865141057621</v>
       </c>
       <c r="H68">
-        <v>0.1657324802648457</v>
-      </c>
-      <c r="I68">
-        <v>0.08672258116410014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.08608079521321489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2322,14 +2115,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2349,14 +2139,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2376,14 +2163,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2403,35 +2187,29 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>7.03822820557086</v>
+        <v>5.686505837164615</v>
       </c>
       <c r="D73">
-        <v>382.8933017748979</v>
+        <v>332.5785979413015</v>
       </c>
       <c r="E73">
-        <v>105.6015473603787</v>
+        <v>104.9912040259292</v>
       </c>
       <c r="F73">
-        <v>34.81197834805683</v>
+        <v>34.42774076962336</v>
       </c>
       <c r="G73">
-        <v>0.01650501920263206</v>
+        <v>0.159977028900645</v>
       </c>
       <c r="H73">
-        <v>0.1658917157502703</v>
-      </c>
-      <c r="I73">
-        <v>0.08773823610246562</v>
+        <v>0.08680592323746028</v>
       </c>
     </row>
   </sheetData>
